--- a/Test Rendimiento.xlsx
+++ b/Test Rendimiento.xlsx
@@ -142,6 +142,1358 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Metodos/Grado Polinomio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>evaluarMSucesivas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1867</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7486</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>186359</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>753738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>evaluarRecursiva</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5051</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>556495</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2931105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>evaluarRecursivaPar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>evaluarProgDinamica</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>evaluarMejorada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>evaluarPow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>evaluarHorne</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>terminoK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>desarrolloCompleto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="193046672"/>
+        <c:axId val="193050592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="193046672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="193050592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="193050592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="193046672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,8 +1761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,13 +1812,27 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3">
+        <v>31</v>
+      </c>
+      <c r="H2" s="3">
+        <v>78</v>
+      </c>
       <c r="I2" s="3">
         <v>1867</v>
       </c>
@@ -484,13 +1850,27 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>47</v>
+      </c>
+      <c r="G3" s="3">
+        <v>94</v>
+      </c>
+      <c r="H3" s="3">
+        <v>187</v>
+      </c>
       <c r="I3" s="3">
         <v>5051</v>
       </c>
@@ -500,32 +1880,34 @@
       <c r="K3" s="3">
         <v>556495</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="3">
+        <v>2931105</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
         <v>16</v>
@@ -536,7 +1918,9 @@
       <c r="K4" s="3">
         <v>48</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3">
+        <v>79</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -637,5 +2021,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Test Rendimiento.xlsx
+++ b/Test Rendimiento.xlsx
@@ -47,13 +47,13 @@
     <t>evaluarPow</t>
   </si>
   <si>
-    <t>evaluarHorne</t>
-  </si>
-  <si>
     <t>terminoK</t>
   </si>
   <si>
     <t>desarrolloCompleto</t>
+  </si>
+  <si>
+    <t>evaluarHorner</t>
   </si>
 </sst>
 </file>
@@ -597,7 +597,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>evaluarHorne</c:v>
+                  <c:v>evaluarHorner</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -622,6 +622,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -714,11 +747,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="193046672"/>
-        <c:axId val="193050592"/>
+        <c:axId val="184277664"/>
+        <c:axId val="184409440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="193046672"/>
+        <c:axId val="184277664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -761,7 +794,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193050592"/>
+        <c:crossAx val="184409440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -769,9 +802,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193050592"/>
+        <c:axId val="184409440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -820,9 +854,10 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193046672"/>
+        <c:crossAx val="184277664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="50000"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1468,13 +1503,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>185736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1761,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,23 +2007,45 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2004,7 +2061,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/Test Rendimiento.xlsx
+++ b/Test Rendimiento.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>evaluarMSucesivas</t>
   </si>
@@ -35,9 +35,6 @@
     <t>evaluarRecursivaPar</t>
   </si>
   <si>
-    <t>Metodos/Grado Polinomio</t>
-  </si>
-  <si>
     <t>evaluarProgDinamica</t>
   </si>
   <si>
@@ -45,12 +42,6 @@
   </si>
   <si>
     <t>evaluarPow</t>
-  </si>
-  <si>
-    <t>terminoK</t>
-  </si>
-  <si>
-    <t>desarrolloCompleto</t>
   </si>
   <si>
     <t>evaluarHorner</t>
@@ -118,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -127,6 +118,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -193,81 +188,11 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Metodos/Grado Polinomio</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Hoja1!$A$2</c:f>
@@ -275,253 +200,6 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>evaluarMSucesivas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$B$2:$L$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1867</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7486</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>186359</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>753738</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>evaluarRecursiva</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$B$3:$L$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5051</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20170</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>556495</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2931105</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>evaluarRecursivaPar</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$B$4:$L$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>79</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>evaluarProgDinamica</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$B$5:$L$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>evaluarMejorada</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -536,89 +214,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$B$6:$L$6</c:f>
+              <c:f>Hoja1!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>evaluarPow</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$7:$L$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>evaluarHorner</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$B$8:$L$8</c:f>
+              <c:f>Hoja1!$B$2:$L$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -626,113 +280,35 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1867</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7486</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>186359</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>terminoK</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$B$9:$L$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>desarrolloCompleto</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$B$10:$L$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                  <c:v>753738</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -746,17 +322,74 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184277664"/>
-        <c:axId val="184409440"/>
+        <c:axId val="31469824"/>
+        <c:axId val="31470384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184277664"/>
+        <c:axId val="31469824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Grado de polinomio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -794,7 +427,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184409440"/>
+        <c:crossAx val="31470384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -802,10 +435,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184409440"/>
+        <c:axId val="31470384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -823,6 +455,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Milisegundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -854,10 +542,9 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184277664"/>
+        <c:crossAx val="31469824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="50000"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -867,12 +554,58 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -887,7 +620,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -902,9 +635,2644 @@
           <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>evaluarRecursiva</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5051</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>556495</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2931105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="198805920"/>
+        <c:axId val="198806480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="198805920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Grado de polinomio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="198806480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="198806480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Milisegundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="198805920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>evaluarRecursivaPar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="198808720"/>
+        <c:axId val="198809280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="198808720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Grado de polinomio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="198809280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="198809280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Milisegundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="198808720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>evaluarProgDinamica</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="198811520"/>
+        <c:axId val="198812080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="198811520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Grado de polinomio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="198812080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="198812080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="210"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Milisegundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="198811520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>evaluarPow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>410</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="198814320"/>
+        <c:axId val="198814880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="198814320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Grado de polinomio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="198814880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="198814880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Milisegundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="198814320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>evaluarMejorada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="198817120"/>
+        <c:axId val="198817680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="198817120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Grado de polinomio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="198817680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="198817680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Milisegundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="198817120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>evaluarHorner</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="198819920"/>
+        <c:axId val="198820480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="198819920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Grado de polinomio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="198820480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="198820480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Milisegundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="198819920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -980,8 +3348,248 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1089,11 +3697,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1104,11 +3707,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1140,9 +3738,3024 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1501,14 +7114,164 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>185736</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1522,7 +7285,37 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1794,10 +7587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,9 +7599,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>100</v>
       </c>
@@ -1851,10 +7642,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3">
         <v>16</v>
@@ -1959,55 +7750,121 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3">
+        <v>213</v>
+      </c>
+      <c r="L5" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3">
+        <v>4</v>
+      </c>
+      <c r="I7" s="3">
+        <v>23</v>
+      </c>
+      <c r="J7" s="3">
+        <v>42</v>
+      </c>
+      <c r="K7" s="3">
+        <v>206</v>
+      </c>
+      <c r="L7" s="3">
+        <v>410</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -2043,37 +7900,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Rendimiento.xlsx
+++ b/Test Rendimiento.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emmanuel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariano.e.laurenti\IdeaProjects\TP2_ComplejidadComputacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Polinomio" sheetId="1" r:id="rId1"/>
+    <sheet name="BinomioNewton" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>evaluarMSucesivas</t>
   </si>
@@ -46,11 +50,29 @@
   <si>
     <t>evaluarHorner</t>
   </si>
+  <si>
+    <t>terminoK Iterativo</t>
+  </si>
+  <si>
+    <t>terminoK Recursivo</t>
+  </si>
+  <si>
+    <t>terminoK Mejorado</t>
+  </si>
+  <si>
+    <t>desarrolloCompleto Iterativo</t>
+  </si>
+  <si>
+    <t>desarrolloCompleto Recursivo</t>
+  </si>
+  <si>
+    <t>desarrolloCompleto Mejorado</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -122,6 +144,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -140,9 +168,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -154,7 +182,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -180,7 +207,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -195,7 +222,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$A$2</c:f>
+              <c:f>Polinomio!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -230,7 +257,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$B$1:$L$1</c:f>
+              <c:f>Polinomio!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -272,47 +299,52 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$2:$L$2</c:f>
+              <c:f>Polinomio!$B$2:$L$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>125948</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2008619</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>5147906</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>1060104</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>22992038</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>46104691</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78</c:v>
+                  <c:v>112846954</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1867</c:v>
+                  <c:v>2511061762</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7486</c:v>
+                  <c:v>8218277281</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>186359</c:v>
+                  <c:v>204734879155</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>753738</c:v>
+                  <c:v>809405491947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D738-4723-8E34-21BCC2AA2B97}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -360,7 +392,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -386,7 +417,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -424,7 +455,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="31470384"/>
@@ -481,7 +512,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -507,7 +537,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -539,7 +569,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="31469824"/>
@@ -580,7 +610,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -591,10 +621,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -606,7 +636,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Test</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR" baseline="0"/>
+              <a:t> rendimiento desarrollo completo</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -632,7 +691,614 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BinomioNewton!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>desarrolloCompleto Iterativo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>BinomioNewton!$B$5:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>27487</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4923</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4923</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12308</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27077</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60718</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64821</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C684-4A0F-9376-537ED015B427}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BinomioNewton!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>desarrolloCompleto Recursivo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>BinomioNewton!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2462</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3692</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>228514</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66928110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1102509525760</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1847450840535</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>4466686000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C684-4A0F-9376-537ED015B427}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BinomioNewton!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>desarrolloCompleto Mejorado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>BinomioNewton!$B$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16821</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8616</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25436</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43487</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130462</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>387693</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1465028</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>995694</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>345847</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C684-4A0F-9376-537ED015B427}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="241349472"/>
+        <c:axId val="242138272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="241349472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Grado binomio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="242138272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="242138272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Nanosegundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="241349472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -647,7 +1313,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$A$3</c:f>
+              <c:f>Polinomio!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -682,7 +1348,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$B$1:$L$1</c:f>
+              <c:f>Polinomio!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -724,47 +1390,52 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$3:$L$3</c:f>
+              <c:f>Polinomio!$B$3:$L$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5139701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>713847</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>882052</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1454772</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47</c:v>
+                  <c:v>45431870</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94</c:v>
+                  <c:v>92612664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5051</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20170</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>556495</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2931105</c:v>
+                  <c:v>198718275</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>5051000000</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>20170000000</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>556495000000</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>2931105000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9FDD-4629-BFD7-4511126C79B4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -812,7 +1483,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -838,7 +1508,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -876,7 +1546,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="198806480"/>
@@ -933,7 +1603,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -959,7 +1628,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -991,7 +1660,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="198805920"/>
@@ -1032,7 +1701,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1044,9 +1713,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1058,7 +1727,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1084,7 +1752,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1099,7 +1767,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$A$4</c:f>
+              <c:f>Polinomio!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1136,7 +1804,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$B$1:$L$1</c:f>
+              <c:f>Polinomio!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1178,47 +1846,52 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$4:$L$4</c:f>
+              <c:f>Polinomio!$B$4:$L$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1614772</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>483693</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>947284</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>403693</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1535182</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1602464</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2743799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>12123917</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>24393065</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48</c:v>
+                  <c:v>98318110</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>79</c:v>
+                  <c:v>158404773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC70-42C8-865A-84F9E044AE5C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1266,7 +1939,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1292,7 +1964,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1330,7 +2002,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="198809280"/>
@@ -1387,7 +2059,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1413,7 +2084,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1445,7 +2116,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="198808720"/>
@@ -1486,7 +2157,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1498,9 +2169,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1512,7 +2183,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1538,7 +2208,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1553,7 +2223,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$A$5</c:f>
+              <c:f>Polinomio!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1588,7 +2258,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$B$1:$L$1</c:f>
+              <c:f>Polinomio!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1630,47 +2300,52 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$5:$L$5</c:f>
+              <c:f>Polinomio!$B$5:$L$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>74667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>79179</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>100103</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>126769</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>453334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>523899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>753642</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>2612107</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>2558773</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>213</c:v>
+                  <c:v>9411298</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>8352424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9ACC-4E1B-908A-01079E90A3C0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1718,7 +2393,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1744,7 +2418,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1782,7 +2456,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="198812080"/>
@@ -1840,7 +2514,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1866,7 +2539,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1898,7 +2571,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="198811520"/>
@@ -1941,7 +2614,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1953,9 +2626,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1967,7 +2640,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1993,7 +2665,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2008,7 +2680,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$A$7</c:f>
+              <c:f>Polinomio!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2043,7 +2715,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$B$1:$L$1</c:f>
+              <c:f>Polinomio!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2085,47 +2757,52 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$7:$L$7</c:f>
+              <c:f>Polinomio!$B$7:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>77538</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>59487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>93129</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>118154</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>3995494</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>4584212</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>6159600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>38227345</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42</c:v>
+                  <c:v>80662286</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>206</c:v>
+                  <c:v>405746717</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>410</c:v>
+                  <c:v>655418102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D55-4D8C-8F67-E4D9B2F6E1D1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2173,7 +2850,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2199,7 +2875,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2237,7 +2913,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="198814880"/>
@@ -2294,7 +2970,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2320,7 +2995,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2352,7 +3027,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="198814320"/>
@@ -2393,7 +3068,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2405,9 +3080,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2419,7 +3094,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2445,7 +3119,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2460,7 +3134,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$A$6</c:f>
+              <c:f>Polinomio!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2495,7 +3169,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$B$1:$L$1</c:f>
+              <c:f>Polinomio!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2537,47 +3211,52 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$6:$L$6</c:f>
+              <c:f>Polinomio!$B$6:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10256</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>19692</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>36923</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>40615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>194461</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>319180</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>404924</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1888824</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>835694</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2500927</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2726159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D468-40B2-A166-5DDECE2CCC59}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2625,7 +3304,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2651,7 +3329,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2689,7 +3367,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="198817680"/>
@@ -2746,7 +3424,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2772,7 +3449,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2804,7 +3481,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="198817120"/>
@@ -2845,7 +3522,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2857,9 +3534,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2871,7 +3548,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2897,7 +3573,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2912,7 +3588,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$A$8</c:f>
+              <c:f>Polinomio!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2947,7 +3623,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$B$1:$L$1</c:f>
+              <c:f>Polinomio!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2989,47 +3665,52 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$8:$L$8</c:f>
+              <c:f>Polinomio!$B$8:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>15590</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>29128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>27077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>148513</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>179283</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>220718</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1277951</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>526360</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>2009849</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>4075084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA60-4BE3-9C06-39D59CF95FEB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3077,7 +3758,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3103,7 +3783,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3141,7 +3821,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="198820480"/>
@@ -3198,7 +3878,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3224,7 +3903,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3256,7 +3935,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="198819920"/>
@@ -3297,7 +3976,1965 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparativo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42266107480115822"/>
+          <c:y val="4.6368297227095318E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polinomio!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>evaluarMSucesivas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Polinomio!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Polinomio!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>125948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5147906</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1060104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22992038</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46104691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112846954</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2511061762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8218277281</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>204734879155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>809405491947</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDBC-4AA6-BD67-38C1E9208494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polinomio!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>evaluarRecursiva</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Polinomio!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Polinomio!$B$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5139701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>713847</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>882052</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1454772</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45431870</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92612664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>198718275</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>5051000000</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>20170000000</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>556495000000</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>2931105000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EDBC-4AA6-BD67-38C1E9208494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polinomio!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>evaluarRecursivaPar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Polinomio!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Polinomio!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1614772</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>483693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>947284</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>403693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1535182</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1602464</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2743799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12123917</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24393065</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98318110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>158404773</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EDBC-4AA6-BD67-38C1E9208494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polinomio!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>evaluarProgDinamica</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Polinomio!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Polinomio!$B$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>74667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126769</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>453334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>523899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>753642</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2612107</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2558773</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9411298</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8352424</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EDBC-4AA6-BD67-38C1E9208494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polinomio!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>evaluarMejorada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Polinomio!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Polinomio!$B$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36923</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40615</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>194461</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>319180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>404924</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1888824</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>835694</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2500927</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2726159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EDBC-4AA6-BD67-38C1E9208494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polinomio!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>evaluarPow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Polinomio!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Polinomio!$B$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>77538</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59487</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>118154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3995494</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4584212</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6159600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38227345</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80662286</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405746717</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>655418102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EDBC-4AA6-BD67-38C1E9208494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Polinomio!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>evaluarHorner</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Polinomio!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Polinomio!$B$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9026</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15590</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27077</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>148513</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>179283</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>220718</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1277951</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>526360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009849</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4075084</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-EDBC-4AA6-BD67-38C1E9208494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="604418360"/>
+        <c:axId val="604415736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="604418360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="604415736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="604415736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="604418360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Test rendimiento</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR" baseline="0"/>
+              <a:t> termino K</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BinomioNewton!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>terminoK Iterativo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BinomioNewton!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BinomioNewton!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1325951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2461</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2872</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3692</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3692</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CCBC-4433-9FDD-9BCCA39412DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BinomioNewton!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>terminoK Recursivo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BinomioNewton!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BinomioNewton!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5744</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2052</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57846</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>463591</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13321458</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63722416365</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96322239708</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>241382831398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CCBC-4433-9FDD-9BCCA39412DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BinomioNewton!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>terminoK Mejorado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BinomioNewton!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BinomioNewton!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7795</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4923</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6974</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13539</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51693</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25436</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CCBC-4433-9FDD-9BCCA39412DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="239065792"/>
+        <c:axId val="239064112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="239065792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Grado binomio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="239064112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="239064112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Nanosegundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="239065792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3309,6 +5946,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3588,6 +6265,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -4091,7 +6848,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4594,7 +7351,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5097,7 +7854,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5600,7 +8357,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6103,7 +8860,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6606,7 +9363,1529 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7126,7 +11405,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7156,7 +11441,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7186,7 +11477,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7216,7 +11513,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Gráfico 7"/>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7246,7 +11549,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Gráfico 8"/>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7276,7 +11585,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7306,7 +11621,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7321,7 +11642,380 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C75199-2DC7-47FD-92C9-56ED0BD18024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>14294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55B96181-B0F3-4284-90D0-551C08C98C7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>14286</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAE4BE18-39AC-4FAD-9CF4-C024B1A9DEDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1">
+            <v>1</v>
+          </cell>
+          <cell r="C1">
+            <v>2</v>
+          </cell>
+          <cell r="D1">
+            <v>3</v>
+          </cell>
+          <cell r="E1">
+            <v>5</v>
+          </cell>
+          <cell r="F1">
+            <v>8</v>
+          </cell>
+          <cell r="G1">
+            <v>13</v>
+          </cell>
+          <cell r="H1">
+            <v>21</v>
+          </cell>
+          <cell r="I1">
+            <v>34</v>
+          </cell>
+          <cell r="J1">
+            <v>35</v>
+          </cell>
+          <cell r="K1">
+            <v>36</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>terminoK Iterativo</v>
+          </cell>
+          <cell r="B2">
+            <v>0</v>
+          </cell>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="D2">
+            <v>0</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+          <cell r="H2">
+            <v>0</v>
+          </cell>
+          <cell r="I2">
+            <v>0</v>
+          </cell>
+          <cell r="J2">
+            <v>0</v>
+          </cell>
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>terminoK Recursivo</v>
+          </cell>
+          <cell r="B3">
+            <v>0</v>
+          </cell>
+          <cell r="C3">
+            <v>0</v>
+          </cell>
+          <cell r="D3">
+            <v>0</v>
+          </cell>
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3">
+            <v>1</v>
+          </cell>
+          <cell r="H3">
+            <v>10</v>
+          </cell>
+          <cell r="I3">
+            <v>55020</v>
+          </cell>
+          <cell r="J3">
+            <v>92343</v>
+          </cell>
+          <cell r="K3">
+            <v>220635</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>terminoK Mejorado</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="E4">
+            <v>0</v>
+          </cell>
+          <cell r="F4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
+          <cell r="H4">
+            <v>0</v>
+          </cell>
+          <cell r="I4">
+            <v>0</v>
+          </cell>
+          <cell r="J4">
+            <v>0</v>
+          </cell>
+          <cell r="K4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>desarrolloCompleto Iterativo</v>
+          </cell>
+          <cell r="B5">
+            <v>0</v>
+          </cell>
+          <cell r="C5">
+            <v>0</v>
+          </cell>
+          <cell r="D5">
+            <v>0</v>
+          </cell>
+          <cell r="E5">
+            <v>0</v>
+          </cell>
+          <cell r="F5">
+            <v>0</v>
+          </cell>
+          <cell r="G5">
+            <v>0</v>
+          </cell>
+          <cell r="H5">
+            <v>0</v>
+          </cell>
+          <cell r="I5">
+            <v>0</v>
+          </cell>
+          <cell r="J5">
+            <v>0</v>
+          </cell>
+          <cell r="K5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>desarrolloCompleto Recursivo</v>
+          </cell>
+          <cell r="B6">
+            <v>0</v>
+          </cell>
+          <cell r="C6">
+            <v>0</v>
+          </cell>
+          <cell r="D6">
+            <v>0</v>
+          </cell>
+          <cell r="E6">
+            <v>0</v>
+          </cell>
+          <cell r="F6">
+            <v>0</v>
+          </cell>
+          <cell r="G6">
+            <v>1</v>
+          </cell>
+          <cell r="H6">
+            <v>67</v>
+          </cell>
+          <cell r="I6">
+            <v>1024385</v>
+          </cell>
+          <cell r="J6">
+            <v>1738630</v>
+          </cell>
+          <cell r="K6">
+            <v>4466686</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>desarrolloCompleto Mejorado</v>
+          </cell>
+          <cell r="B7">
+            <v>0</v>
+          </cell>
+          <cell r="C7">
+            <v>0</v>
+          </cell>
+          <cell r="D7">
+            <v>0</v>
+          </cell>
+          <cell r="E7">
+            <v>0</v>
+          </cell>
+          <cell r="F7">
+            <v>0</v>
+          </cell>
+          <cell r="G7">
+            <v>0</v>
+          </cell>
+          <cell r="H7">
+            <v>0</v>
+          </cell>
+          <cell r="I7">
+            <v>0</v>
+          </cell>
+          <cell r="J7">
+            <v>0</v>
+          </cell>
+          <cell r="K7">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7589,11 +12283,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" customWidth="1"/>
   </cols>
@@ -7639,37 +12333,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>0</v>
+        <v>125948</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
+        <v>2008619</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>5147906</v>
       </c>
       <c r="E2" s="3">
-        <v>16</v>
+        <v>1060104</v>
       </c>
       <c r="F2" s="3">
-        <v>15</v>
+        <v>22992038</v>
       </c>
       <c r="G2" s="3">
-        <v>31</v>
+        <v>46104691</v>
       </c>
       <c r="H2" s="3">
-        <v>78</v>
+        <v>112846954</v>
       </c>
       <c r="I2" s="3">
-        <v>1867</v>
+        <v>2511061762</v>
       </c>
       <c r="J2" s="3">
-        <v>7486</v>
+        <v>8218277281</v>
       </c>
       <c r="K2" s="3">
-        <v>186359</v>
+        <v>204734879155</v>
       </c>
       <c r="L2" s="3">
-        <v>753738</v>
+        <v>809405491947</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7677,37 +12371,37 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>5139701</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>713847</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>882052</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>1454772</v>
       </c>
       <c r="F3" s="3">
-        <v>47</v>
+        <v>45431870</v>
       </c>
       <c r="G3" s="3">
-        <v>94</v>
+        <v>92612664</v>
       </c>
       <c r="H3" s="3">
-        <v>187</v>
-      </c>
-      <c r="I3" s="3">
-        <v>5051</v>
-      </c>
-      <c r="J3" s="3">
-        <v>20170</v>
-      </c>
-      <c r="K3" s="3">
-        <v>556495</v>
-      </c>
-      <c r="L3" s="3">
-        <v>2931105</v>
+        <v>198718275</v>
+      </c>
+      <c r="I3" s="7">
+        <v>5051000000</v>
+      </c>
+      <c r="J3" s="7">
+        <v>20170000000</v>
+      </c>
+      <c r="K3" s="7">
+        <v>556495000000</v>
+      </c>
+      <c r="L3" s="7">
+        <v>2931105000000</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7715,37 +12409,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>0</v>
+        <v>1614772</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>483693</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>947284</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>403693</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>1535182</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>1602464</v>
       </c>
       <c r="H4" s="3">
-        <v>0</v>
+        <v>2743799</v>
       </c>
       <c r="I4" s="3">
-        <v>16</v>
+        <v>12123917</v>
       </c>
       <c r="J4" s="3">
-        <v>16</v>
+        <v>24393065</v>
       </c>
       <c r="K4" s="3">
-        <v>48</v>
+        <v>98318110</v>
       </c>
       <c r="L4" s="3">
-        <v>79</v>
+        <v>158404773</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7753,37 +12447,37 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>74667</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>79179</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>100103</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>126769</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
+        <v>453334</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>523899</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>753642</v>
       </c>
       <c r="I5" s="3">
-        <v>2</v>
+        <v>2612107</v>
       </c>
       <c r="J5" s="3">
-        <v>2</v>
+        <v>2558773</v>
       </c>
       <c r="K5" s="3">
-        <v>213</v>
+        <v>9411298</v>
       </c>
       <c r="L5" s="3">
-        <v>7</v>
+        <v>8352424</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7791,37 +12485,37 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>10256</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>19692</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>36923</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>40615</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>194461</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>319180</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>404924</v>
       </c>
       <c r="I6" s="3">
-        <v>0</v>
+        <v>1888824</v>
       </c>
       <c r="J6" s="3">
-        <v>0</v>
+        <v>835694</v>
       </c>
       <c r="K6" s="3">
-        <v>0</v>
+        <v>2500927</v>
       </c>
       <c r="L6" s="3">
-        <v>0</v>
+        <v>2726159</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7829,37 +12523,37 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>0</v>
+        <v>77538</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>59487</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>93129</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>118154</v>
       </c>
       <c r="F7" s="3">
-        <v>2</v>
+        <v>3995494</v>
       </c>
       <c r="G7" s="3">
-        <v>3</v>
+        <v>4584212</v>
       </c>
       <c r="H7" s="3">
-        <v>4</v>
+        <v>6159600</v>
       </c>
       <c r="I7" s="3">
-        <v>23</v>
+        <v>38227345</v>
       </c>
       <c r="J7" s="3">
-        <v>42</v>
+        <v>80662286</v>
       </c>
       <c r="K7" s="3">
-        <v>206</v>
+        <v>405746717</v>
       </c>
       <c r="L7" s="3">
-        <v>410</v>
+        <v>655418102</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7867,37 +12561,37 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>0</v>
+        <v>9026</v>
       </c>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>15590</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>29128</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>27077</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>148513</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>179283</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>220718</v>
       </c>
       <c r="I8" s="3">
-        <v>1</v>
+        <v>1277951</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>526360</v>
       </c>
       <c r="K8" s="3">
-        <v>2</v>
+        <v>2009849</v>
       </c>
       <c r="L8" s="3">
-        <v>2</v>
+        <v>4075084</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -7919,4 +12613,267 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2">
+        <v>34</v>
+      </c>
+      <c r="J1" s="2">
+        <v>35</v>
+      </c>
+      <c r="K1" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1325951</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2872</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2461</v>
+      </c>
+      <c r="E2" s="6">
+        <v>2872</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2461</v>
+      </c>
+      <c r="G2" s="6">
+        <v>2872</v>
+      </c>
+      <c r="H2" s="6">
+        <v>3692</v>
+      </c>
+      <c r="I2" s="6">
+        <v>5333</v>
+      </c>
+      <c r="J2" s="6">
+        <v>3692</v>
+      </c>
+      <c r="K2" s="6">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5744</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2052</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4103</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5744</v>
+      </c>
+      <c r="F3" s="3">
+        <v>57846</v>
+      </c>
+      <c r="G3" s="3">
+        <v>463591</v>
+      </c>
+      <c r="H3" s="3">
+        <v>13321458</v>
+      </c>
+      <c r="I3" s="3">
+        <v>63722416365</v>
+      </c>
+      <c r="J3" s="3">
+        <v>96322239708</v>
+      </c>
+      <c r="K3" s="3">
+        <v>241382831398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>7795</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3693</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4103</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4923</v>
+      </c>
+      <c r="F4" s="3">
+        <v>6974</v>
+      </c>
+      <c r="G4" s="3">
+        <v>13539</v>
+      </c>
+      <c r="H4" s="3">
+        <v>20103</v>
+      </c>
+      <c r="I4" s="3">
+        <v>51693</v>
+      </c>
+      <c r="J4" s="3">
+        <v>25436</v>
+      </c>
+      <c r="K4" s="3">
+        <v>29539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>27487</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3693</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4923</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4923</v>
+      </c>
+      <c r="F5" s="3">
+        <v>7795</v>
+      </c>
+      <c r="G5" s="3">
+        <v>12308</v>
+      </c>
+      <c r="H5" s="3">
+        <v>27077</v>
+      </c>
+      <c r="I5" s="3">
+        <v>60718</v>
+      </c>
+      <c r="J5" s="3">
+        <v>64821</v>
+      </c>
+      <c r="K5" s="3">
+        <v>53334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5333</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2051</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2462</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3692</v>
+      </c>
+      <c r="F6" s="3">
+        <v>11077</v>
+      </c>
+      <c r="G6" s="3">
+        <v>228514</v>
+      </c>
+      <c r="H6" s="3">
+        <v>66928110</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1102509525760</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1847450840535</v>
+      </c>
+      <c r="K6" s="7">
+        <v>4466686000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>16821</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8616</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10666</v>
+      </c>
+      <c r="E7" s="3">
+        <v>25436</v>
+      </c>
+      <c r="F7" s="3">
+        <v>43487</v>
+      </c>
+      <c r="G7" s="3">
+        <v>130462</v>
+      </c>
+      <c r="H7" s="3">
+        <v>387693</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1465028</v>
+      </c>
+      <c r="J7" s="3">
+        <v>995694</v>
+      </c>
+      <c r="K7" s="3">
+        <v>345847</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Test Rendimiento.xlsx
+++ b/Test Rendimiento.xlsx
@@ -12283,7 +12283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:L8"/>
     </sheetView>
   </sheetViews>
